--- a/src/test/resources/testData/Payment ImportDO1.xlsx
+++ b/src/test/resources/testData/Payment ImportDO1.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>Order-Id*</t>
   </si>
@@ -79,6 +79,60 @@
   </si>
   <si>
     <t>69080892-5207-4ac3-bca0-b86ae5a0973e</t>
+  </si>
+  <si>
+    <t>79581db0-fd78-4856-a942-95e61c67d106</t>
+  </si>
+  <si>
+    <t>52bca7db-e94b-4913-849c-805294c4db92</t>
+  </si>
+  <si>
+    <t>8c6f6d2e-4860-4851-96aa-2b128c4a865a</t>
+  </si>
+  <si>
+    <t>f4e1834a-2a13-46d1-b0ca-3f0dfc0d0b9c</t>
+  </si>
+  <si>
+    <t>8ddeafe8-6c1c-40af-af98-5c6dd1741a23</t>
+  </si>
+  <si>
+    <t>c4ab0513-7d40-4845-a3f2-e0a032817ea1</t>
+  </si>
+  <si>
+    <t>20a9ed89-3acf-474b-9c6d-f07ec6487dbe</t>
+  </si>
+  <si>
+    <t>fea15a8e-033c-4379-be3a-ee5d42fbeeee</t>
+  </si>
+  <si>
+    <t>4d260ac0-4a88-4a23-a295-0e78df6da786</t>
+  </si>
+  <si>
+    <t>844e78bf-47a3-4a3f-b1af-fed0d3605148</t>
+  </si>
+  <si>
+    <t>64c53f4d-789e-402f-bf45-a064089ecdcd</t>
+  </si>
+  <si>
+    <t>0cb69aad-0873-436d-b805-c579f5adc12b</t>
+  </si>
+  <si>
+    <t>fe614246-d44b-4d66-b95c-d1483fa7db5c</t>
+  </si>
+  <si>
+    <t>8f1cc576-006f-4447-9e50-4a3ee7b078b2</t>
+  </si>
+  <si>
+    <t>883e3286-b4ce-4eb2-97d1-6f1c3e9717b1</t>
+  </si>
+  <si>
+    <t>5f30ff05-47eb-48eb-bc29-db7b8234c94a</t>
+  </si>
+  <si>
+    <t>8fe28901-01f9-447d-9e42-4ac70dcfdb99</t>
+  </si>
+  <si>
+    <t>54fc12a6-7415-4031-8fc4-6f97a6708904</t>
   </si>
 </sst>
 </file>
@@ -430,10 +484,10 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>6</v>

--- a/src/test/resources/testData/Payment ImportDO1.xlsx
+++ b/src/test/resources/testData/Payment ImportDO1.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>Order-Id*</t>
   </si>
@@ -133,6 +133,18 @@
   </si>
   <si>
     <t>54fc12a6-7415-4031-8fc4-6f97a6708904</t>
+  </si>
+  <si>
+    <t>c2ed1b7b-dc7f-433d-8d42-57afa2d38b81</t>
+  </si>
+  <si>
+    <t>4110f57e-6848-4923-9a1f-85175353d30c</t>
+  </si>
+  <si>
+    <t>98569ccb-170b-4aef-81ed-9693ea3ed091</t>
+  </si>
+  <si>
+    <t>90b9c12f-e429-4c5c-b897-e7741759da18</t>
   </si>
 </sst>
 </file>
@@ -484,10 +496,10 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>6</v>

--- a/src/test/resources/testData/Payment ImportDO1.xlsx
+++ b/src/test/resources/testData/Payment ImportDO1.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>Order-Id*</t>
   </si>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>90b9c12f-e429-4c5c-b897-e7741759da18</t>
+  </si>
+  <si>
+    <t>0f2b813a-4f00-4961-b5fa-fd2cdb8c0e90</t>
+  </si>
+  <si>
+    <t>6bf6638f-1b76-47b7-92bf-af375ec0cb86</t>
   </si>
 </sst>
 </file>
@@ -496,10 +502,10 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>6</v>

--- a/src/test/resources/testData/Payment ImportDO1.xlsx
+++ b/src/test/resources/testData/Payment ImportDO1.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>Order-Id*</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>6bf6638f-1b76-47b7-92bf-af375ec0cb86</t>
+  </si>
+  <si>
+    <t>1149e5a0-f67a-4c2d-a537-77e38bef5d8f</t>
+  </si>
+  <si>
+    <t>a9e08ab5-2b6f-4e64-ba04-d74db269452c</t>
   </si>
 </sst>
 </file>
@@ -502,10 +508,10 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>6</v>

--- a/src/test/resources/testData/Payment ImportDO1.xlsx
+++ b/src/test/resources/testData/Payment ImportDO1.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>Order-Id*</t>
   </si>
@@ -157,6 +157,30 @@
   </si>
   <si>
     <t>a9e08ab5-2b6f-4e64-ba04-d74db269452c</t>
+  </si>
+  <si>
+    <t>810e9e5e-83b8-42d8-9435-4fa07c46287e</t>
+  </si>
+  <si>
+    <t>363cfeb3-ed43-426d-9a07-2077fae5eb19</t>
+  </si>
+  <si>
+    <t>b58bbc6e-b515-45ad-ab5a-a807cc18371c</t>
+  </si>
+  <si>
+    <t>22df55d8-e12f-4c41-af9e-bfba78ae346a</t>
+  </si>
+  <si>
+    <t>c28c57bb-a918-408b-913e-2524f795ed73</t>
+  </si>
+  <si>
+    <t>c353af46-b43b-42da-95e8-679ec4e88652</t>
+  </si>
+  <si>
+    <t>66571a2d-f6df-4fc7-af06-c0a12f677468</t>
+  </si>
+  <si>
+    <t>8ae614d3-ed8f-4c45-9877-07886553e554</t>
   </si>
 </sst>
 </file>
@@ -508,10 +532,10 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>6</v>

--- a/src/test/resources/testData/Payment ImportDO1.xlsx
+++ b/src/test/resources/testData/Payment ImportDO1.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
   <si>
     <t>Order-Id*</t>
   </si>
@@ -181,6 +181,18 @@
   </si>
   <si>
     <t>8ae614d3-ed8f-4c45-9877-07886553e554</t>
+  </si>
+  <si>
+    <t>6a5f0d97-d3d1-4d0c-ab99-4205641efd9b</t>
+  </si>
+  <si>
+    <t>53e29c69-0bb5-44f5-aef9-2fe71294233d</t>
+  </si>
+  <si>
+    <t>54051b2a-cd68-4689-b5c5-1c9403167aa4</t>
+  </si>
+  <si>
+    <t>7e3effa6-66b2-4ccb-bcf2-9416a03ec1eb</t>
   </si>
 </sst>
 </file>
@@ -532,10 +544,10 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>6</v>

--- a/src/test/resources/testData/Payment ImportDO1.xlsx
+++ b/src/test/resources/testData/Payment ImportDO1.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
   <si>
     <t>Order-Id*</t>
   </si>
@@ -193,6 +193,33 @@
   </si>
   <si>
     <t>7e3effa6-66b2-4ccb-bcf2-9416a03ec1eb</t>
+  </si>
+  <si>
+    <t>7b3a9611-a95f-48d2-9cc9-2899a63cd7e9</t>
+  </si>
+  <si>
+    <t>6f56d46a-05a3-40d0-bda8-92ed981ad1ec</t>
+  </si>
+  <si>
+    <t>20ee4acf-5f3c-4c10-98de-fb98635f5938</t>
+  </si>
+  <si>
+    <t>9607bf94-9cdc-4d95-bf62-1de2ea03fa33</t>
+  </si>
+  <si>
+    <t>a80f93a9-fc95-4be0-a5c3-b13e216966a5</t>
+  </si>
+  <si>
+    <t>2515f349-a31c-409b-8587-3652e74bad8a</t>
+  </si>
+  <si>
+    <t>aa8c7c76-8822-435b-8731-1bbe57593bc8</t>
+  </si>
+  <si>
+    <t>03f5296a-0cf2-4777-a31e-d3d0e0b1e865</t>
+  </si>
+  <si>
+    <t>eed53292-07c5-46ac-b04b-1449c37b5120</t>
   </si>
 </sst>
 </file>
@@ -544,10 +571,10 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>6</v>

--- a/src/test/resources/testData/Payment ImportDO1.xlsx
+++ b/src/test/resources/testData/Payment ImportDO1.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="65">
   <si>
     <t>Order-Id*</t>
   </si>
@@ -220,6 +220,12 @@
   </si>
   <si>
     <t>eed53292-07c5-46ac-b04b-1449c37b5120</t>
+  </si>
+  <si>
+    <t>d197978a-1411-4a10-95f1-49d14af0242e</t>
+  </si>
+  <si>
+    <t>f8aba7bc-7630-402d-889e-a96a1bbb3cd7</t>
   </si>
 </sst>
 </file>
@@ -571,10 +577,10 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>6</v>
